--- a/biology/Zoologie/Aneides/Aneides.xlsx
+++ b/biology/Zoologie/Aneides/Aneides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aneides est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aneides est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huit espèces de ce genre se rencontrent en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huit espèces de ce genre se rencontrent en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (13 mars 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (13 mars 2014) :
 Aneides aeneus (Cope &amp; Packard, 1881)
 Aneides ferreus Cope, 1869
 Aneides flavipunctatus (Strauch, 1870)
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1851 : Iconographic Encyclopaedia of Science, Literature and Art systematically arranged by J.G. Heck. Translated from the German, with additions, and edited by Spencer F. Baird, vol. 2, Botany, Zoology, Anthropology, and Surgery. New York, Rudolph Garrigue (texte intégral).</t>
         </is>
